--- a/flows/PPLT_fund_flow_data.xlsx
+++ b/flows/PPLT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3367"/>
+  <dimension ref="A1:B3383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34105,6 +34105,166 @@
         <v>-8.285</v>
       </c>
     </row>
+    <row r="3368">
+      <c r="A3368" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3371" t="n">
+        <v>-4.1008</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3378" t="n">
+        <v>-4.21035</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3379" t="n">
+        <v>-8.4206</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3383" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
